--- a/Bin It - Database.xlsx
+++ b/Bin It - Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Full %</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +387,7 @@
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +397,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -405,8 +411,11 @@
       <c r="C2">
         <v>75.814515</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -416,8 +425,11 @@
       <c r="C3">
         <v>75.813873999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -427,8 +439,11 @@
       <c r="C4">
         <v>75.815042000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -438,8 +453,11 @@
       <c r="C5">
         <v>75.815532000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -449,8 +467,11 @@
       <c r="C6">
         <v>75.810612000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -460,8 +481,11 @@
       <c r="C7">
         <v>75.814274999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -471,8 +495,11 @@
       <c r="C8">
         <v>75.813412999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -482,8 +509,11 @@
       <c r="C9">
         <v>75.808815999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -493,8 +523,11 @@
       <c r="C10">
         <v>75.817041000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -504,8 +537,11 @@
       <c r="C11">
         <v>75.812049000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -515,8 +551,11 @@
       <c r="C12">
         <v>75.816179000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -526,8 +565,11 @@
       <c r="C13">
         <v>75.807846999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -537,8 +579,11 @@
       <c r="C14">
         <v>75.816753000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -548,8 +593,11 @@
       <c r="C15">
         <v>75.811187000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -559,8 +607,11 @@
       <c r="C16">
         <v>75.806877</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -570,8 +621,11 @@
       <c r="C17">
         <v>75.803788999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -581,8 +635,11 @@
       <c r="C18">
         <v>75.803653999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -592,8 +649,11 @@
       <c r="C19">
         <v>75.798963000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -603,8 +663,11 @@
       <c r="C20">
         <v>75.801011000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -613,6 +676,9 @@
       </c>
       <c r="C21">
         <v>75.813113999999999</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
